--- a/workfile/锐安项目文档/胡登登工作交接/锐安项目加班餐补记录.xlsx
+++ b/workfile/锐安项目文档/胡登登工作交接/锐安项目加班餐补记录.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$66</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="127">
   <si>
     <t>11月27</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,13 +509,32 @@
   </si>
   <si>
     <t>10:30 - 18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陈子瑶 </t>
+  </si>
+  <si>
+    <t>王晓旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陈子瑶 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陈子瑶 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:00 - 23:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -855,21 +874,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,7 +905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -903,7 +922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -920,7 +939,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -937,7 +956,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -954,7 +973,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -971,7 +990,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -988,7 +1007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1005,7 +1024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1022,7 +1041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1039,7 +1058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="1.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="1.1499999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1056,7 +1075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43800</v>
       </c>
@@ -1073,7 +1092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43800</v>
       </c>
@@ -1090,7 +1109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43808</v>
       </c>
@@ -1107,7 +1126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>43808</v>
       </c>
@@ -1124,7 +1143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>43808</v>
       </c>
@@ -1141,7 +1160,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>43808</v>
       </c>
@@ -1158,7 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>43811</v>
       </c>
@@ -1175,7 +1194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>43811</v>
       </c>
@@ -1192,7 +1211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>43813</v>
       </c>
@@ -1209,7 +1228,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>43813</v>
       </c>
@@ -1226,7 +1245,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>43813</v>
       </c>
@@ -1243,7 +1262,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>43813</v>
       </c>
@@ -1260,7 +1279,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>43813</v>
       </c>
@@ -1277,7 +1296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>43813</v>
       </c>
@@ -1294,7 +1313,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>43814</v>
       </c>
@@ -1311,7 +1330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>43814</v>
       </c>
@@ -1328,7 +1347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43814</v>
       </c>
@@ -1345,7 +1364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>43815</v>
       </c>
@@ -1362,7 +1381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>43815</v>
       </c>
@@ -1379,7 +1398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>43815</v>
       </c>
@@ -1396,7 +1415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>43815</v>
       </c>
@@ -1413,7 +1432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>43815</v>
       </c>
@@ -1430,7 +1449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43816</v>
       </c>
@@ -1447,7 +1466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>43816</v>
       </c>
@@ -1464,7 +1483,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>43816</v>
       </c>
@@ -1481,7 +1500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>43816</v>
       </c>
@@ -1498,7 +1517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>43817</v>
       </c>
@@ -1515,7 +1534,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>43817</v>
       </c>
@@ -1532,7 +1551,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43817</v>
       </c>
@@ -1549,7 +1568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>43818</v>
       </c>
@@ -1566,7 +1585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>43818</v>
       </c>
@@ -1583,7 +1602,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43818</v>
       </c>
@@ -1600,7 +1619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43819</v>
       </c>
@@ -1617,7 +1636,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43819</v>
       </c>
@@ -1634,7 +1653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43819</v>
       </c>
@@ -1651,7 +1670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>43819</v>
       </c>
@@ -1668,7 +1687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>43820</v>
       </c>
@@ -1685,7 +1704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>43820</v>
       </c>
@@ -1702,7 +1721,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43821</v>
       </c>
@@ -1719,7 +1738,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>43821</v>
       </c>
@@ -1736,7 +1755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>43822</v>
       </c>
@@ -1753,7 +1772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>43822</v>
       </c>
@@ -1770,7 +1789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43823</v>
       </c>
@@ -1787,7 +1806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>43823</v>
       </c>
@@ -1804,7 +1823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>43827</v>
       </c>
@@ -1821,7 +1840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>43827</v>
       </c>
@@ -1838,7 +1857,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>43827</v>
       </c>
@@ -1855,7 +1874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43827</v>
       </c>
@@ -1872,7 +1891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>43827</v>
       </c>
@@ -1889,7 +1908,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>43828</v>
       </c>
@@ -1906,7 +1925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>43829</v>
       </c>
@@ -1923,7 +1942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43829</v>
       </c>
@@ -1940,7 +1959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>43829</v>
       </c>
@@ -1957,7 +1976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>43829</v>
       </c>
@@ -1974,7 +1993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>43829</v>
       </c>
@@ -1991,7 +2010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1999,7 +2018,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>43832</v>
       </c>
@@ -2016,7 +2035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>43832</v>
       </c>
@@ -2033,7 +2052,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43832</v>
       </c>
@@ -2050,7 +2069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>43832</v>
       </c>
@@ -2067,7 +2086,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>43833</v>
       </c>
@@ -2084,7 +2103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43833</v>
       </c>
@@ -2101,7 +2120,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>43833</v>
       </c>
@@ -2118,7 +2137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>43834</v>
       </c>
@@ -2135,7 +2154,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>43834</v>
       </c>
@@ -2152,7 +2171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43834</v>
       </c>
@@ -2169,7 +2188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>43834</v>
       </c>
@@ -2186,7 +2205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>43836</v>
       </c>
@@ -2203,7 +2222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>43836</v>
       </c>
@@ -2220,7 +2239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43836</v>
       </c>
@@ -2237,7 +2256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>43836</v>
       </c>
@@ -2254,7 +2273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>43837</v>
       </c>
@@ -2271,7 +2290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>43837</v>
       </c>
@@ -2288,7 +2307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43837</v>
       </c>
@@ -2305,7 +2324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>43838</v>
       </c>
@@ -2322,7 +2341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>43838</v>
       </c>
@@ -2339,7 +2358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>43838</v>
       </c>
@@ -2356,7 +2375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>43839</v>
       </c>
@@ -2373,7 +2392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43839</v>
       </c>
@@ -2390,7 +2409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>43839</v>
       </c>
@@ -2407,7 +2426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>43840</v>
       </c>
@@ -2424,7 +2443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43840</v>
       </c>
@@ -2441,7 +2460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>43841</v>
       </c>
@@ -2458,7 +2477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>43841</v>
       </c>
@@ -2475,7 +2494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43841</v>
       </c>
@@ -2492,7 +2511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>43841</v>
       </c>
@@ -2509,7 +2528,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>43842</v>
       </c>
@@ -2524,6 +2543,176 @@
       </c>
       <c r="E98">
         <v>40</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" t="s">
+        <v>126</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B101" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" t="s">
+        <v>126</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B102" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" t="s">
+        <v>126</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B103" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" t="s">
+        <v>126</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B104" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" t="s">
+        <v>126</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B105" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" t="s">
+        <v>126</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B106" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" t="s">
+        <v>126</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>43848</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>43849</v>
+      </c>
+      <c r="B108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" t="s">
+        <v>126</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
